--- a/202304/04_単体テスト/04_単体試験仕様書/チーム2/社員情報登録(更新)画面_単体試験仕様書.xlsx
+++ b/202304/04_単体テスト/04_単体試験仕様書/チーム2/社員情報登録(更新)画面_単体試験仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" tabRatio="804" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16425" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="初期画面表示" sheetId="36" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
   <si>
     <t>システム名称</t>
     <rPh sb="4" eb="6">
@@ -425,10 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2023/2/31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ー１０</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,6 +511,19 @@
       <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>馬</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
   </si>
 </sst>
 </file>
@@ -940,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1025,53 +1034,20 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,8 +1070,74 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1115,6 +1157,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,29 +1169,44 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1159,60 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1904,110 +1910,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="37" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="54" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="37" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="60"/>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="55" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="45" t="s">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="55" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="45" t="s">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53">
         <v>45040</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55"/>
     </row>
     <row r="3" spans="1:42" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
@@ -12127,13 +12133,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
@@ -12144,6 +12143,13 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -12159,8 +12165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ262"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="125" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -12176,114 +12182,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="37" t="str">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="54" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="37" t="str">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="60"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="55" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="45" t="str">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠システム</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="55" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="45" t="str">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48" t="str">
         <f>初期画面表示!V2</f>
         <v>社員情報更新画面</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53">
         <v>45040</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55"/>
     </row>
     <row r="3" spans="1:36" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
@@ -12324,24 +12330,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
       <c r="S4" s="7">
         <v>1</v>
       </c>
@@ -12380,28 +12386,28 @@
       <c r="AJ4" s="7"/>
     </row>
     <row r="5" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="8" t="s">
         <v>16</v>
       </c>
@@ -12424,7 +12430,7 @@
       <c r="AJ5" s="8"/>
     </row>
     <row r="6" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -12462,26 +12468,26 @@
       <c r="AJ6" s="8"/>
     </row>
     <row r="7" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="58"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
@@ -12502,26 +12508,26 @@
       <c r="AJ7" s="8"/>
     </row>
     <row r="8" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="59" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8" t="s">
         <v>16</v>
@@ -12544,26 +12550,26 @@
       <c r="AJ8" s="8"/>
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="72"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8" t="s">
@@ -12596,7 +12602,7 @@
       <c r="AJ9" s="8"/>
     </row>
     <row r="10" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -12634,26 +12640,26 @@
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
-      <c r="B11" s="79" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -12674,9 +12680,9 @@
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
-      <c r="B12" s="82" t="s">
-        <v>46</v>
+      <c r="A12" s="78"/>
+      <c r="B12" s="85">
+        <v>44978</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="83"/>
@@ -12720,7 +12726,7 @@
       <c r="AJ12" s="8"/>
     </row>
     <row r="13" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="85">
         <v>52</v>
       </c>
@@ -12762,7 +12768,7 @@
       <c r="AJ13" s="8"/>
     </row>
     <row r="14" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="85">
         <v>365296</v>
       </c>
@@ -12804,7 +12810,7 @@
       <c r="AJ14" s="8"/>
     </row>
     <row r="15" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -12842,26 +12848,26 @@
       <c r="AJ15" s="8"/>
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
-      <c r="B16" s="86" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="88"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
@@ -12882,26 +12888,26 @@
       <c r="AJ16" s="8"/>
     </row>
     <row r="17" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
-      <c r="B17" s="89" t="s">
-        <v>47</v>
+      <c r="A17" s="78"/>
+      <c r="B17" s="73" t="s">
+        <v>46</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="69"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
@@ -12924,7 +12930,7 @@
       <c r="AJ17" s="8"/>
     </row>
     <row r="18" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -12962,8 +12968,8 @@
       <c r="AJ18" s="8"/>
     </row>
     <row r="19" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="90" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="23"/>
@@ -13002,10 +13008,10 @@
       <c r="AJ19" s="8"/>
     </row>
     <row r="20" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91" t="s">
-        <v>48</v>
+      <c r="A20" s="78"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -13044,7 +13050,7 @@
       <c r="AJ20" s="8"/>
     </row>
     <row r="21" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -13082,8 +13088,8 @@
       <c r="AJ21" s="8"/>
     </row>
     <row r="22" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
-      <c r="B22" s="90" t="s">
+      <c r="A22" s="78"/>
+      <c r="B22" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="23"/>
@@ -13122,10 +13128,10 @@
       <c r="AJ22" s="8"/>
     </row>
     <row r="23" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91" t="s">
-        <v>49</v>
+      <c r="A23" s="78"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -13164,7 +13170,7 @@
       <c r="AJ23" s="8"/>
     </row>
     <row r="24" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -13202,26 +13208,26 @@
       <c r="AJ24" s="8"/>
     </row>
     <row r="25" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8" t="s">
         <v>16</v>
@@ -13256,26 +13262,26 @@
       <c r="AJ25" s="8"/>
     </row>
     <row r="26" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="68"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="63"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -13298,24 +13304,24 @@
       <c r="AJ26" s="8"/>
     </row>
     <row r="27" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="68"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -13336,24 +13342,24 @@
       <c r="AJ27" s="8"/>
     </row>
     <row r="28" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="94"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="68"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
@@ -13374,28 +13380,28 @@
       <c r="AJ28" s="8"/>
     </row>
     <row r="29" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="68"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="63"/>
       <c r="S29" s="8" t="s">
         <v>16</v>
       </c>
@@ -13418,26 +13424,26 @@
       <c r="AJ29" s="8"/>
     </row>
     <row r="30" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="68"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="63"/>
       <c r="S30" s="8" t="s">
         <v>16</v>
       </c>
@@ -13460,26 +13466,26 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="68"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
       <c r="S31" s="8" t="s">
         <v>39</v>
       </c>
@@ -13502,26 +13508,26 @@
       <c r="AJ31" s="8"/>
     </row>
     <row r="32" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="65"/>
+      <c r="B32" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="68"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="63"/>
       <c r="S32" s="8" t="s">
         <v>16</v>
       </c>
@@ -13544,26 +13550,26 @@
       <c r="AJ32" s="8"/>
     </row>
     <row r="33" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="68"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="63"/>
       <c r="S33" s="8" t="s">
         <v>16</v>
       </c>
@@ -13586,26 +13592,26 @@
       <c r="AJ33" s="8"/>
     </row>
     <row r="34" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="68"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="63"/>
       <c r="S34" s="8" t="s">
         <v>16</v>
       </c>
@@ -13628,7 +13634,7 @@
       <c r="AJ34" s="8"/>
     </row>
     <row r="35" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="19" t="s">
         <v>36</v>
       </c>
@@ -13670,7 +13676,7 @@
       <c r="AJ35" s="8"/>
     </row>
     <row r="36" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -13708,24 +13714,24 @@
       <c r="AJ36" s="8"/>
     </row>
     <row r="37" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
-      <c r="R37" s="68"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="63"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
@@ -13746,26 +13752,26 @@
       <c r="AJ37" s="8"/>
     </row>
     <row r="38" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="66" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="67"/>
-      <c r="R38" s="68"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="63"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8" t="s">
         <v>16</v>
@@ -13788,24 +13794,24 @@
       <c r="AJ38" s="8"/>
     </row>
     <row r="39" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="68"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="63"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -13826,26 +13832,26 @@
       <c r="AJ39" s="8"/>
     </row>
     <row r="40" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="68"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="63"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
@@ -13876,24 +13882,24 @@
       <c r="AJ40" s="31"/>
     </row>
     <row r="41" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="68"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="63"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
@@ -13914,26 +13920,26 @@
       <c r="AJ41" s="8"/>
     </row>
     <row r="42" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="66" t="s">
+      <c r="A42" s="65"/>
+      <c r="B42" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="68"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="63"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
@@ -13954,26 +13960,26 @@
       <c r="AJ42" s="8"/>
     </row>
     <row r="43" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
-      <c r="B43" s="66" t="s">
-        <v>50</v>
+      <c r="A43" s="65"/>
+      <c r="B43" s="61" t="s">
+        <v>49</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="68"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="63"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
@@ -14002,26 +14008,26 @@
       <c r="AJ43" s="8"/>
     </row>
     <row r="44" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="71"/>
-      <c r="B44" s="66" t="s">
-        <v>51</v>
+      <c r="A44" s="65"/>
+      <c r="B44" s="61" t="s">
+        <v>50</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="68"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="63"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
@@ -14050,26 +14056,26 @@
       <c r="AJ44" s="8"/>
     </row>
     <row r="45" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="71"/>
-      <c r="B45" s="66" t="s">
-        <v>52</v>
+      <c r="A45" s="65"/>
+      <c r="B45" s="61" t="s">
+        <v>51</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
-      <c r="R45" s="68"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="63"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -14098,26 +14104,26 @@
       <c r="AJ45" s="8"/>
     </row>
     <row r="46" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
-      <c r="B46" s="66" t="s">
-        <v>53</v>
+      <c r="A46" s="65"/>
+      <c r="B46" s="61" t="s">
+        <v>52</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" s="67"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="67"/>
-      <c r="P46" s="67"/>
-      <c r="Q46" s="67"/>
-      <c r="R46" s="68"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="63"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
@@ -14146,26 +14152,26 @@
       <c r="AJ46" s="8"/>
     </row>
     <row r="47" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="71"/>
-      <c r="B47" s="66" t="s">
-        <v>54</v>
+      <c r="A47" s="65"/>
+      <c r="B47" s="61" t="s">
+        <v>53</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="68"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="63"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
@@ -14194,26 +14200,26 @@
       <c r="AJ47" s="8"/>
     </row>
     <row r="48" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
-      <c r="B48" s="66" t="s">
-        <v>55</v>
+      <c r="A48" s="65"/>
+      <c r="B48" s="61" t="s">
+        <v>54</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="67"/>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="68"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="63"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -14242,26 +14248,26 @@
       <c r="AJ48" s="8"/>
     </row>
     <row r="49" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="71"/>
-      <c r="B49" s="66" t="s">
-        <v>56</v>
+      <c r="A49" s="65"/>
+      <c r="B49" s="61" t="s">
+        <v>55</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="68"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="63"/>
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
@@ -14290,26 +14296,26 @@
       <c r="AJ49" s="8"/>
     </row>
     <row r="50" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
-      <c r="B50" s="66" t="s">
-        <v>57</v>
+      <c r="A50" s="65"/>
+      <c r="B50" s="61" t="s">
+        <v>56</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="67"/>
-      <c r="P50" s="67"/>
-      <c r="Q50" s="67"/>
-      <c r="R50" s="68"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="63"/>
       <c r="S50" s="8"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
@@ -14338,24 +14344,24 @@
       <c r="AJ50" s="8"/>
     </row>
     <row r="51" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="71"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
-      <c r="R51" s="68"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="62"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="63"/>
       <c r="S51" s="8"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
@@ -14376,24 +14382,24 @@
       <c r="AJ51" s="8"/>
     </row>
     <row r="52" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="68"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="63"/>
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
@@ -14414,24 +14420,24 @@
       <c r="AJ52" s="8"/>
     </row>
     <row r="53" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
-      <c r="R53" s="68"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="63"/>
       <c r="S53" s="8"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
@@ -14452,35 +14458,53 @@
       <c r="AJ53" s="8"/>
     </row>
     <row r="54" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="67"/>
-      <c r="P54" s="67"/>
-      <c r="Q54" s="67"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="9"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA54" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
@@ -14492,35 +14516,53 @@
       <c r="AJ54" s="9"/>
     </row>
     <row r="55" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA55" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="8"/>
@@ -14532,35 +14574,53 @@
       <c r="AJ55" s="8"/>
     </row>
     <row r="56" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
-      <c r="Q56" s="67"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="T56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="U56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="V56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="W56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="X56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>45041</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>45041</v>
+      </c>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
@@ -14572,26 +14632,26 @@
       <c r="AJ56" s="11"/>
     </row>
     <row r="57" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="68"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="63"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
@@ -14612,26 +14672,26 @@
       <c r="AJ57" s="8"/>
     </row>
     <row r="58" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
-      <c r="Q58" s="67"/>
-      <c r="R58" s="68"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="63"/>
       <c r="S58" s="10"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -22405,6 +22465,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B17:R17"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="A5:A28"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B12:R12"/>
+    <mergeCell ref="B13:R13"/>
+    <mergeCell ref="B14:R14"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="B32:R32"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B49:R49"/>
+    <mergeCell ref="B50:R50"/>
+    <mergeCell ref="B51:R51"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="B45:R45"/>
+    <mergeCell ref="B46:R46"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="B39:R39"/>
     <mergeCell ref="A58:R58"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AC2:AE2"/>
@@ -22421,51 +22526,6 @@
     <mergeCell ref="A56:R56"/>
     <mergeCell ref="B47:R47"/>
     <mergeCell ref="B48:R48"/>
-    <mergeCell ref="B49:R49"/>
-    <mergeCell ref="B50:R50"/>
-    <mergeCell ref="B51:R51"/>
-    <mergeCell ref="A29:A53"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="B45:R45"/>
-    <mergeCell ref="B46:R46"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="B32:R32"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B17:R17"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="A5:A28"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B12:R12"/>
-    <mergeCell ref="B13:R13"/>
-    <mergeCell ref="B14:R14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -22486,8 +22546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView view="pageBreakPreview" zoomScale="125" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -22503,114 +22563,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="37" t="str">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44" t="str">
         <f>初期画面表示!M1</f>
         <v>KS</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="54" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="37" t="str">
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="44" t="str">
         <f>初期画面表示!V1</f>
         <v>KS001</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="42" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="44"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="60"/>
     </row>
     <row r="2" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="55" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="45" t="str">
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48" t="str">
         <f>初期画面表示!M2</f>
         <v>勤怠システム</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="55" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="45" t="str">
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48" t="str">
         <f>初期画面表示!V2</f>
         <v>社員情報更新画面</v>
       </c>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="32" t="s">
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="34">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53">
         <v>45040</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="55"/>
     </row>
     <row r="3" spans="1:36" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
@@ -22651,24 +22711,24 @@
       <c r="AJ3"/>
     </row>
     <row r="4" spans="1:36" s="4" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="64"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
       <c r="S4" s="7">
         <v>1</v>
       </c>
@@ -22699,28 +22759,28 @@
       <c r="AJ4" s="7"/>
     </row>
     <row r="5" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>58</v>
+      <c r="B5" s="67" t="s">
+        <v>57</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
@@ -22741,26 +22801,26 @@
       <c r="AJ5" s="8"/>
     </row>
     <row r="6" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
-      <c r="B6" s="59">
+      <c r="A6" s="89"/>
+      <c r="B6" s="70">
         <v>49</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="72"/>
       <c r="S6" s="8" t="s">
         <v>16</v>
       </c>
@@ -22783,26 +22843,26 @@
       <c r="AJ6" s="8"/>
     </row>
     <row r="7" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="59">
+      <c r="A7" s="89"/>
+      <c r="B7" s="70">
         <v>50</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="72"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8" t="s">
         <v>16</v>
@@ -22825,26 +22885,26 @@
       <c r="AJ7" s="8"/>
     </row>
     <row r="8" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="59">
+      <c r="A8" s="89"/>
+      <c r="B8" s="70">
         <v>51</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8" t="s">
@@ -22867,24 +22927,24 @@
       <c r="AJ8" s="8"/>
     </row>
     <row r="9" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="61"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="72"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
@@ -22905,24 +22965,24 @@
       <c r="AJ9" s="8"/>
     </row>
     <row r="10" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="61"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -22943,24 +23003,24 @@
       <c r="AJ10" s="8"/>
     </row>
     <row r="11" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="69"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
@@ -22981,24 +23041,24 @@
       <c r="AJ11" s="8"/>
     </row>
     <row r="12" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="61"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="72"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
@@ -23019,24 +23079,24 @@
       <c r="AJ12" s="8"/>
     </row>
     <row r="13" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="61"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="72"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
@@ -23057,26 +23117,26 @@
       <c r="AJ13" s="8"/>
     </row>
     <row r="14" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="69"/>
       <c r="S14" s="8" t="s">
         <v>16</v>
       </c>
@@ -23103,24 +23163,24 @@
       <c r="AJ14" s="8"/>
     </row>
     <row r="15" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="69"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
@@ -23141,24 +23201,24 @@
       <c r="AJ15" s="8"/>
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="61"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="72"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
@@ -23179,24 +23239,24 @@
       <c r="AJ16" s="8"/>
     </row>
     <row r="17" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="61"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="72"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
@@ -23217,24 +23277,24 @@
       <c r="AJ17" s="8"/>
     </row>
     <row r="18" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="69"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
@@ -23255,24 +23315,24 @@
       <c r="AJ18" s="8"/>
     </row>
     <row r="19" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
@@ -23293,24 +23353,24 @@
       <c r="AJ19" s="8"/>
     </row>
     <row r="20" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="69"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
@@ -23331,24 +23391,24 @@
       <c r="AJ20" s="8"/>
     </row>
     <row r="21" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="69"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
@@ -23369,24 +23429,24 @@
       <c r="AJ21" s="8"/>
     </row>
     <row r="22" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="69"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
@@ -23407,24 +23467,24 @@
       <c r="AJ22" s="8"/>
     </row>
     <row r="23" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="69"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
@@ -23445,24 +23505,24 @@
       <c r="AJ23" s="8"/>
     </row>
     <row r="24" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="58"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
@@ -23483,28 +23543,28 @@
       <c r="AJ24" s="8"/>
     </row>
     <row r="25" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>59</v>
+      <c r="B25" s="67" t="s">
+        <v>58</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="69"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8" t="s">
@@ -23527,24 +23587,24 @@
       <c r="AJ25" s="8"/>
     </row>
     <row r="26" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="69"/>
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
@@ -23565,24 +23625,24 @@
       <c r="AJ26" s="8"/>
     </row>
     <row r="27" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="71"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="69"/>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -23603,24 +23663,24 @@
       <c r="AJ27" s="8"/>
     </row>
     <row r="28" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="69"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
@@ -23641,24 +23701,24 @@
       <c r="AJ28" s="8"/>
     </row>
     <row r="29" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="71"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="58"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="69"/>
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
@@ -23679,24 +23739,24 @@
       <c r="AJ29" s="8"/>
     </row>
     <row r="30" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="58"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="69"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
@@ -23717,100 +23777,100 @@
       <c r="AJ30" s="8"/>
     </row>
     <row r="31" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="71"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="77"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="87"/>
     </row>
     <row r="32" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
-      <c r="AJ32" s="78"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="88"/>
     </row>
     <row r="33" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="71"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="58"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="69"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
@@ -23831,24 +23891,24 @@
       <c r="AJ33" s="8"/>
     </row>
     <row r="34" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="58"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="69"/>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
@@ -23869,24 +23929,24 @@
       <c r="AJ34" s="8"/>
     </row>
     <row r="35" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="71"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="58"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="69"/>
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
@@ -23907,24 +23967,24 @@
       <c r="AJ35" s="8"/>
     </row>
     <row r="36" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="58"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="69"/>
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
       <c r="U36" s="8"/>
@@ -23945,24 +24005,24 @@
       <c r="AJ36" s="8"/>
     </row>
     <row r="37" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="71"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="58"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="69"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
       <c r="U37" s="8"/>
@@ -23983,24 +24043,24 @@
       <c r="AJ37" s="8"/>
     </row>
     <row r="38" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="58"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="69"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
       <c r="U38" s="8"/>
@@ -24021,24 +24081,24 @@
       <c r="AJ38" s="8"/>
     </row>
     <row r="39" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="71"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="58"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="69"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
       <c r="U39" s="8"/>
@@ -24059,24 +24119,24 @@
       <c r="AJ39" s="8"/>
     </row>
     <row r="40" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="58"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="69"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="8"/>
@@ -24097,24 +24157,24 @@
       <c r="AJ40" s="8"/>
     </row>
     <row r="41" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="58"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="69"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
@@ -24135,24 +24195,24 @@
       <c r="AJ41" s="8"/>
     </row>
     <row r="42" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="58"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="69"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
@@ -24173,24 +24233,24 @@
       <c r="AJ42" s="8"/>
     </row>
     <row r="43" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="71"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="58"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="69"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
@@ -24211,24 +24271,24 @@
       <c r="AJ43" s="8"/>
     </row>
     <row r="44" spans="1:36" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="72"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="58"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="69"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
@@ -24249,26 +24309,26 @@
       <c r="AJ44" s="8"/>
     </row>
     <row r="45" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="69"/>
-      <c r="R45" s="69"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
@@ -24289,26 +24349,26 @@
       <c r="AJ45" s="9"/>
     </row>
     <row r="46" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="69"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
@@ -24329,26 +24389,26 @@
       <c r="AJ46" s="8"/>
     </row>
     <row r="47" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
-      <c r="R47" s="68"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="63"/>
       <c r="S47" s="10"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
@@ -24369,26 +24429,26 @@
       <c r="AJ47" s="11"/>
     </row>
     <row r="48" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="69"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="69"/>
-      <c r="R48" s="69"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="86"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -24409,26 +24469,26 @@
       <c r="AJ48" s="8"/>
     </row>
     <row r="49" spans="1:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="69"/>
-      <c r="N49" s="69"/>
-      <c r="O49" s="69"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="69"/>
-      <c r="R49" s="69"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="86"/>
       <c r="S49" s="10"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
@@ -32201,53 +32261,26 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A49:R49"/>
-    <mergeCell ref="B40:R40"/>
-    <mergeCell ref="B41:R41"/>
-    <mergeCell ref="B42:R42"/>
-    <mergeCell ref="B43:R43"/>
-    <mergeCell ref="B44:R44"/>
-    <mergeCell ref="A45:R45"/>
-    <mergeCell ref="A25:A44"/>
-    <mergeCell ref="B25:R25"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="B27:R27"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="A46:R46"/>
-    <mergeCell ref="A47:R47"/>
-    <mergeCell ref="B35:R35"/>
-    <mergeCell ref="B36:R36"/>
-    <mergeCell ref="B37:R37"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="B39:R39"/>
-    <mergeCell ref="B38:R38"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AJ31:AJ32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="B34:R34"/>
-    <mergeCell ref="A5:A24"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B30:R30"/>
-    <mergeCell ref="B31:R32"/>
-    <mergeCell ref="B33:R33"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="B11:R11"/>
+    <mergeCell ref="B24:R24"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B6:R6"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B23:R23"/>
     <mergeCell ref="B12:R12"/>
@@ -32263,26 +32296,53 @@
     <mergeCell ref="B22:R22"/>
     <mergeCell ref="A4:R4"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B6:R6"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AH2:AJ2"/>
-    <mergeCell ref="B11:R11"/>
-    <mergeCell ref="B24:R24"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="B34:R34"/>
+    <mergeCell ref="A5:A24"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B30:R30"/>
+    <mergeCell ref="B31:R32"/>
+    <mergeCell ref="B33:R33"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:R10"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AJ31:AJ32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A47:R47"/>
+    <mergeCell ref="B35:R35"/>
+    <mergeCell ref="B36:R36"/>
+    <mergeCell ref="B37:R37"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="B39:R39"/>
+    <mergeCell ref="B38:R38"/>
+    <mergeCell ref="A48:R48"/>
+    <mergeCell ref="A49:R49"/>
+    <mergeCell ref="B40:R40"/>
+    <mergeCell ref="B41:R41"/>
+    <mergeCell ref="B42:R42"/>
+    <mergeCell ref="B43:R43"/>
+    <mergeCell ref="B44:R44"/>
+    <mergeCell ref="A45:R45"/>
+    <mergeCell ref="A25:A44"/>
+    <mergeCell ref="B25:R25"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="B27:R27"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B29:R29"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
